--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -522,16 +522,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>27.89620666666667</v>
+        <v>0.6577333333333334</v>
       </c>
       <c r="H2">
-        <v>83.68862</v>
+        <v>1.9732</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.331236666666667</v>
+        <v>1.665504333333333</v>
       </c>
       <c r="N2">
-        <v>6.99371</v>
+        <v>4.996513</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>65.03265984224446</v>
+        <v>1.095457716844445</v>
       </c>
       <c r="R2">
-        <v>585.2939385802</v>
+        <v>9.859119451600002</v>
       </c>
       <c r="S2">
         <v>1</v>
